--- a/data_excel/90.xlsx
+++ b/data_excel/90.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\AI\project2_extension\example_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF911B4A-510C-452C-9A89-CFACB4570ABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17595" yWindow="3885" windowWidth="8085" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17595" yWindow="3885" windowWidth="8085" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,19 +115,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +142,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,12 +166,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -467,16 +489,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -516,7 +538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -536,7 +558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -556,7 +578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -576,7 +598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -596,7 +618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -610,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -621,29 +643,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -654,7 +676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>

--- a/data_excel/90.xlsx
+++ b/data_excel/90.xlsx
@@ -119,7 +119,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pv</t>
+    <t>snv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -170,6 +170,17 @@
       <left style="medium">
         <color rgb="FFFF0000"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
@@ -185,9 +196,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -493,7 +505,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,7 +662,7 @@
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
